--- a/CSSI_2019/forms/CSSI_2019_Budget_AmyRoberts.xlsx
+++ b/CSSI_2019/forms/CSSI_2019_Budget_AmyRoberts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canto\Repositories\SI2.git\CSSI_2019\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800C6071-B1DF-4CC8-9082-9279B41F3F14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CEF273-E5BC-46A7-9780-9609A6E4BDE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$80</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$77</definedName>
   </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>On-Campus, Instruction 42%</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -234,9 +234,6 @@
     <t>Student Fees - 3% increase</t>
   </si>
   <si>
-    <t>Principal Investigator(s): Martin E. Huber, Amy L. Roberts, Anthony N. Villano</t>
-  </si>
-  <si>
     <t>Department:  Physics</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>Wage</t>
   </si>
   <si>
-    <t>Co-P.I. (Villano) - Summer - 2 mo.</t>
-  </si>
-  <si>
     <t>Graduate Assistant(s) (Enrolled) (SA-VI, $18.00) (m students, n hours/week, r weeks, w $/hour)</t>
   </si>
   <si>
@@ -285,61 +279,52 @@
     <t>Full Time Professional Staff (Full Time PRA  (Bruce Hines))</t>
   </si>
   <si>
-    <t>Full Time Professional Staff (Full Time PRA  (New Hire [for Amy Roberts]))</t>
-  </si>
-  <si>
-    <t>Post-Doctoral Fellow - (New Hire [for Anthony Villano]), 0.5 FTE</t>
-  </si>
-  <si>
-    <t>Project Title:  Collaborative Research: The SuperCDMS SNOLAB Experiment</t>
-  </si>
-  <si>
-    <t>Co-P.I. (Roberts) - Summer - 1 mo.</t>
-  </si>
-  <si>
-    <t>Co-P.I. (Roberts) - Acad Yr</t>
-  </si>
-  <si>
-    <t>Co-P.I. (Villano) - Acad Yr</t>
-  </si>
-  <si>
     <t>35% Y1, 30% Y2 + Y3</t>
   </si>
   <si>
     <t>(AY2017-2018)</t>
   </si>
   <si>
-    <t>$11k Huber (mostly Lhe, also computer replacemnents &amp; magnetometer)</t>
-  </si>
-  <si>
-    <t>Permanent Equipment (over $5,000) Anthony: for neutron measurements: PMT bases for 24-detector NaI array ($15,480); and CAEN digitizer ($9,999)</t>
-  </si>
-  <si>
     <t>16.667% (2 months) Y1, Y2, Y3</t>
   </si>
   <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>OPS</t>
-  </si>
-  <si>
-    <t>Not distinguishing foreign vs domestic in sum</t>
-  </si>
-  <si>
-    <t>Amy sum check (should = zero):</t>
-  </si>
-  <si>
-    <t>PRA Benefits sum check (should = zero):</t>
-  </si>
-  <si>
-    <t>Anthonhy please verify this is the right split, 50/50</t>
-  </si>
-  <si>
     <t>P.I. (Roberts) - Acad Yr - 10% (course release)</t>
   </si>
   <si>
-    <t>P.I. (Huber) - Summer - 1 mo. (second mo. requires NSF waiver/approval)</t>
+    <t>P.I. (Roberts) - Acad Yr</t>
+  </si>
+  <si>
+    <t>P.I. (Roberts) - Summer - 1 mo.</t>
+  </si>
+  <si>
+    <t>Post-Doctoral Fellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permanent Equipment (over $5,000) </t>
+  </si>
+  <si>
+    <t>Full Time Professional Staff (Full Time PRA  (Gabriella Ramirez))</t>
+  </si>
+  <si>
+    <t>Laptops for students, laptop replacements, broadcast accessories</t>
+  </si>
+  <si>
+    <t>CLAS fee per credit hour</t>
+  </si>
+  <si>
+    <t>fees per semester</t>
+  </si>
+  <si>
+    <t>health insurance</t>
+  </si>
+  <si>
+    <t>credit hours</t>
+  </si>
+  <si>
+    <t>Principal Investigator(s): Amy L. Roberts</t>
+  </si>
+  <si>
+    <t>Project Title:  Elements: Improving tools based on data-description standards for gigabyte-scale data sets</t>
   </si>
 </sst>
 </file>
@@ -409,7 +394,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,12 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -531,18 +510,15 @@
     <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="8" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -967,56 +943,50 @@
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>36</v>
@@ -1031,10 +1001,10 @@
         <v>38</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>56</v>
       </c>
@@ -1043,282 +1013,259 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="K7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B8" s="21">
-        <f>K8*1.03*10%</f>
-        <v>11678.964</v>
+        <f>$K8*1.03*10%*0</f>
+        <v>0</v>
       </c>
       <c r="C8" s="21">
-        <f t="shared" ref="C8:D13" si="0">B8*1.03</f>
-        <v>12029.332920000001</v>
+        <f>$K8*1.03*1.03*10%*0</f>
+        <v>0</v>
       </c>
       <c r="D8" s="21">
+        <f>$K8*1.03*1.03*1.03*10%*1</f>
+        <v>7321.2709000000004</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" ref="E8:E11" si="0">SUM(B8:D8)</f>
+        <v>7321.2709000000004</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="K8" s="17">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="9">
+        <f>K9*0/10</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="9">
+        <f t="shared" ref="C8:D10" si="1">B9*1.03</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
-        <v>12390.212907600002</v>
-      </c>
-      <c r="E8" s="18">
-        <f t="shared" ref="E8:E14" si="1">SUM(B8:D8)</f>
-        <v>36098.509827600006</v>
-      </c>
-      <c r="F8" s="27">
-        <f>E8</f>
-        <v>36098.509827600006</v>
-      </c>
-      <c r="K8" s="17">
-        <v>113388</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="9">
-        <f>K8*2/9</f>
-        <v>25197.333333333332</v>
-      </c>
-      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="17">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="21">
+        <f>K9*(1/9)</f>
+        <v>7444.4444444444443</v>
+      </c>
+      <c r="C10" s="21">
+        <f t="shared" si="1"/>
+        <v>7667.7777777777783</v>
+      </c>
+      <c r="D10" s="21">
+        <f t="shared" si="1"/>
+        <v>7897.811111111112</v>
+      </c>
+      <c r="E10" s="18">
         <f t="shared" si="0"/>
-        <v>25953.253333333334</v>
-      </c>
-      <c r="D9" s="9">
+        <v>23010.033333333333</v>
+      </c>
+      <c r="F10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="19">
+        <f>SUM(B8:B10)</f>
+        <v>7444.4444444444443</v>
+      </c>
+      <c r="C11" s="19">
+        <f>SUM(C8:C10)</f>
+        <v>7667.7777777777783</v>
+      </c>
+      <c r="D11" s="19">
+        <f>SUM(D8:D10)</f>
+        <v>15219.082011111113</v>
+      </c>
+      <c r="E11" s="18">
         <f t="shared" si="0"/>
-        <v>26731.850933333335</v>
-      </c>
-      <c r="E9" s="18">
-        <f t="shared" si="1"/>
-        <v>77882.437600000005</v>
-      </c>
-      <c r="F9" s="27">
-        <f>E9</f>
-        <v>77882.437600000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="21">
-        <f>K10*0</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D10" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="17">
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="9">
-        <f>K10*(1/9)</f>
-        <v>7444.4444444444443</v>
-      </c>
-      <c r="C11" s="9">
-        <f t="shared" si="0"/>
-        <v>7667.7777777777783</v>
-      </c>
-      <c r="D11" s="9">
-        <f t="shared" si="0"/>
-        <v>7897.811111111112</v>
-      </c>
-      <c r="E11" s="18">
-        <f t="shared" si="1"/>
-        <v>23010.033333333333</v>
-      </c>
-      <c r="F11" s="27">
-        <f>E11</f>
-        <v>23010.033333333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B12" s="21">
-        <v>0</v>
-      </c>
-      <c r="C12" s="21">
-        <f>K12*0%*1.03</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="17">
-        <v>67000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0</v>
-      </c>
-      <c r="C13" s="9">
-        <f>K12*(2/9)*1.03</f>
-        <v>15335.555555555557</v>
-      </c>
-      <c r="D13" s="9">
-        <f t="shared" si="0"/>
-        <v>15795.622222222224</v>
-      </c>
-      <c r="E13" s="18">
-        <f t="shared" si="1"/>
-        <v>31131.177777777782</v>
-      </c>
-      <c r="F13" s="27">
-        <v>31131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="19">
-        <f>SUM(B8:B13)</f>
-        <v>44320.741777777781</v>
-      </c>
-      <c r="C14" s="19">
-        <f>SUM(C8:C13)</f>
-        <v>60985.919586666671</v>
-      </c>
-      <c r="D14" s="19">
-        <f>SUM(D8:D13)</f>
-        <v>62815.497174266668</v>
+        <v>30331.304233333336</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="K13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="9">
+        <f>K14*0</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <f>K14*103%*0</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <f>K14*103%*103%*0</f>
+        <v>0</v>
       </c>
       <c r="E14" s="18">
-        <f t="shared" si="1"/>
-        <v>168122.15853871111</v>
-      </c>
-      <c r="F14" s="27">
-        <f>SUM(F8:F13)</f>
-        <v>168121.98076093334</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="K16" t="s">
-        <v>68</v>
+        <f t="shared" ref="E14:E25" si="2">SUM(B14:D14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="K14" s="17">
+        <v>57591</v>
+      </c>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="9">
+        <f>K15*0.8</f>
+        <v>33600</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15:D16" si="3">(B15*3%)+B15</f>
+        <v>34608</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="3"/>
+        <v>35646.239999999998</v>
+      </c>
+      <c r="E15" s="18">
+        <f t="shared" si="2"/>
+        <v>103854.23999999999</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="26"/>
+      <c r="K15" s="17">
+        <v>42000</v>
+      </c>
+      <c r="L15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B17" s="9">
-        <f>K17*0.35</f>
-        <v>20156.849999999999</v>
+        <v>0</v>
       </c>
       <c r="C17" s="9">
-        <f>K17*103%*0.3</f>
-        <v>17795.618999999999</v>
+        <f>(B17*3%)+B17</f>
+        <v>0</v>
       </c>
       <c r="D17" s="9">
-        <f>K17*103%*103%*0.3</f>
-        <v>18329.487570000001</v>
+        <f t="shared" ref="D17" si="4">(C17*3%)+C17</f>
+        <v>0</v>
       </c>
       <c r="E17" s="18">
-        <f t="shared" ref="E17:E28" si="2">SUM(B17:D17)</f>
-        <v>56281.956569999995</v>
-      </c>
-      <c r="G17" s="27">
-        <f>E17</f>
-        <v>56281.956569999995</v>
-      </c>
-      <c r="K17" s="17">
-        <v>57591</v>
-      </c>
-      <c r="L17" t="s">
-        <v>88</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B18" s="9">
-        <f>K18*2/12</f>
-        <v>5833.333333333333</v>
+        <v>0</v>
       </c>
       <c r="C18" s="9">
-        <f t="shared" ref="C18:D19" si="3">(B18*3%)+B18</f>
-        <v>6008.333333333333</v>
+        <f>K18*0</f>
+        <v>0</v>
       </c>
       <c r="D18" s="9">
-        <f t="shared" si="3"/>
-        <v>6188.583333333333</v>
+        <f>47844*0</f>
+        <v>0</v>
       </c>
       <c r="E18" s="18">
         <f t="shared" si="2"/>
-        <v>18030.25</v>
-      </c>
-      <c r="G18">
-        <v>18030</v>
-      </c>
-      <c r="H18" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="27">
-        <f>F18+G18-E18</f>
-        <v>-0.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="K18" s="17">
-        <v>35000</v>
+        <v>47484</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>54</v>
+      <c r="A19" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B19" s="9">
         <v>0</v>
       </c>
       <c r="C19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="C19:D24" si="5">(B19*3%)+B19</f>
         <v>0</v>
       </c>
       <c r="D19" s="9">
-        <f t="shared" si="3"/>
+        <f>(C19*3%)+C19</f>
         <v>0</v>
       </c>
       <c r="E19" s="18">
@@ -1327,404 +1274,359 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>55</v>
+      <c r="A20" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B20" s="9">
         <v>0</v>
       </c>
       <c r="C20" s="9">
-        <f>(B20*3%)+B20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" ref="D20" si="4">(C20*3%)+C20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E20" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>83</v>
+      <c r="K20" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" t="s">
+        <v>71</v>
+      </c>
+      <c r="N20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B21" s="9">
-        <v>0</v>
+        <f>K21*L21*M21*N21</f>
+        <v>11520</v>
       </c>
       <c r="C21" s="9">
-        <f>K21*0.5</f>
-        <v>23742</v>
+        <f t="shared" si="5"/>
+        <v>11865.6</v>
       </c>
       <c r="D21" s="9">
-        <f>47844*0.5</f>
-        <v>23922</v>
+        <f t="shared" si="5"/>
+        <v>12221.568000000001</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" si="2"/>
-        <v>47664</v>
-      </c>
-      <c r="F21" s="33">
-        <f>E21*0.5</f>
-        <v>23832</v>
-      </c>
-      <c r="G21" s="33">
-        <f>E21*0.5</f>
-        <v>23832</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>98</v>
+        <v>35607.167999999998</v>
       </c>
       <c r="K21" s="17">
-        <v>47484</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>79</v>
+        <v>1</v>
+      </c>
+      <c r="L21" s="17">
+        <v>20</v>
+      </c>
+      <c r="M21" s="17">
+        <v>32</v>
+      </c>
+      <c r="N21" s="23">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B22" s="9">
-        <v>0</v>
+        <f>K22*L22*M22*N22</f>
+        <v>6480</v>
       </c>
       <c r="C22" s="9">
-        <f t="shared" ref="C22:D27" si="5">(B22*3%)+B22</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>6674.4</v>
       </c>
       <c r="D22" s="9">
-        <f>(C22*3%)+C22</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>6874.6319999999996</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>20029.031999999999</v>
+      </c>
+      <c r="K22" s="17">
+        <v>1</v>
+      </c>
+      <c r="L22" s="17">
+        <v>30</v>
+      </c>
+      <c r="M22" s="17">
+        <v>12</v>
+      </c>
+      <c r="N22" s="23">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B23" s="9">
-        <v>0</v>
+        <f>K23*L23*M23*N23</f>
+        <v>9600</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9888</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10184.64</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23" t="s">
-        <v>70</v>
-      </c>
-      <c r="L23" t="s">
-        <v>71</v>
-      </c>
-      <c r="M23" t="s">
-        <v>72</v>
-      </c>
-      <c r="N23" t="s">
-        <v>73</v>
+        <v>29672.639999999999</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="K23" s="17">
+        <v>2</v>
+      </c>
+      <c r="L23" s="17">
+        <v>12</v>
+      </c>
+      <c r="M23" s="17">
+        <v>32</v>
+      </c>
+      <c r="N23" s="23">
+        <v>12.5</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="9">
         <f>K24*L24*M24*N24</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9270</v>
       </c>
       <c r="D24" s="9">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9548.1</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>27818.1</v>
+      </c>
+      <c r="F24" s="26"/>
       <c r="K24" s="17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24" s="17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M24" s="17">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="N24" s="23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="9">
-        <f>K25*L25*M25*N25</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="19">
+        <f>SUM(B14:B24)</f>
+        <v>70200</v>
+      </c>
+      <c r="C25" s="19">
+        <f>SUM(C14:C24)</f>
+        <v>72306</v>
+      </c>
+      <c r="D25" s="19">
+        <f>SUM(D14:D24)</f>
+        <v>74475.179999999993</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="17">
-        <v>0</v>
-      </c>
-      <c r="L25" s="17">
-        <v>20</v>
-      </c>
-      <c r="M25" s="17">
-        <v>12</v>
-      </c>
-      <c r="N25" s="23">
-        <v>18</v>
-      </c>
+        <v>216981.18</v>
+      </c>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="9">
-        <f>K26*L26*M26*N26</f>
-        <v>12000</v>
-      </c>
-      <c r="C26" s="9">
-        <f t="shared" si="5"/>
-        <v>12360</v>
-      </c>
-      <c r="D26" s="9">
-        <f t="shared" si="5"/>
-        <v>12730.8</v>
-      </c>
-      <c r="E26" s="18">
-        <f t="shared" si="2"/>
-        <v>37090.800000000003</v>
-      </c>
-      <c r="F26" s="27">
-        <f>E26</f>
-        <v>37090.800000000003</v>
-      </c>
-      <c r="K26" s="17">
-        <v>2</v>
-      </c>
-      <c r="L26" s="17">
-        <v>15</v>
-      </c>
-      <c r="M26" s="17">
-        <v>32</v>
-      </c>
-      <c r="N26" s="23">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:14" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="9">
-        <f>K27*L27*M27*N27</f>
-        <v>9000</v>
-      </c>
-      <c r="C27" s="9">
-        <f t="shared" si="5"/>
-        <v>9270</v>
-      </c>
-      <c r="D27" s="9">
-        <f t="shared" si="5"/>
-        <v>9548.1</v>
-      </c>
-      <c r="E27" s="18">
-        <f t="shared" si="2"/>
-        <v>27818.1</v>
-      </c>
-      <c r="F27" s="27">
-        <f>E27</f>
-        <v>27818.1</v>
-      </c>
-      <c r="K27" s="17">
-        <v>2</v>
-      </c>
-      <c r="L27" s="17">
-        <v>30</v>
-      </c>
-      <c r="M27" s="17">
-        <v>12</v>
-      </c>
-      <c r="N27" s="23">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A28" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="19">
-        <f>SUM(B17:B27)</f>
-        <v>46990.183333333334</v>
-      </c>
-      <c r="C28" s="19">
-        <f>SUM(C17:C27)</f>
-        <v>69175.952333333335</v>
-      </c>
-      <c r="D28" s="19">
-        <f>SUM(D17:D27)</f>
-        <v>70718.970903333335</v>
+      <c r="B28" s="18">
+        <f>B11*27%</f>
+        <v>2010</v>
+      </c>
+      <c r="C28" s="18">
+        <f>C11*27%</f>
+        <v>2070.3000000000002</v>
+      </c>
+      <c r="D28" s="18">
+        <f>D11*27%</f>
+        <v>4109.1521430000012</v>
       </c>
       <c r="E28" s="18">
-        <f t="shared" si="2"/>
-        <v>186885.10657</v>
-      </c>
-      <c r="F28" s="2">
-        <f>SUM(F17:F27)</f>
-        <v>88740.9</v>
-      </c>
-      <c r="G28" s="29">
-        <f>SUM(G17:G27)</f>
-        <v>98143.956569999995</v>
-      </c>
-      <c r="H28" s="2">
-        <f>SUM(F28:G28)</f>
-        <v>186884.85657</v>
-      </c>
+        <f t="shared" ref="E28:E37" si="6">SUM(B28:D28)</f>
+        <v>8189.4521430000013</v>
+      </c>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:14" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="A29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="18">
+        <f>SUM(B14+B15)*28%</f>
+        <v>9408</v>
+      </c>
+      <c r="C29" s="18">
+        <f>SUM(C14+C15)*28%</f>
+        <v>9690.2400000000016</v>
+      </c>
+      <c r="D29" s="18">
+        <f>SUM(D14+D15)*28%</f>
+        <v>9980.9472000000005</v>
+      </c>
+      <c r="E29" s="18">
+        <f t="shared" si="6"/>
+        <v>29079.1872</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+    </row>
+    <row r="30" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="18">
+        <f>B16*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="18">
+        <f>C16*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="18">
+        <f>D16*0.09</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="25"/>
     </row>
     <row r="31" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="B31" s="18">
-        <f>B14*27%</f>
-        <v>11966.600280000002</v>
+        <f>B17*0.08</f>
+        <v>0</v>
       </c>
       <c r="C31" s="18">
-        <f>C14*27%</f>
-        <v>16466.198288400003</v>
+        <f>C17*0.08</f>
+        <v>0</v>
       </c>
       <c r="D31" s="18">
-        <f>D14*27%</f>
-        <v>16960.184237052003</v>
+        <f>D17*0.08</f>
+        <v>0</v>
       </c>
       <c r="E31" s="18">
-        <f t="shared" ref="E31:E40" si="6">SUM(B31:D31)</f>
-        <v>45392.982805452004</v>
-      </c>
-      <c r="F31" s="26">
-        <f>F14*0.27</f>
-        <v>45392.934805452001</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B32" s="18">
-        <f>SUM(B17+B18)*28%</f>
-        <v>7277.2513333333336</v>
+        <f>B18*0.19</f>
+        <v>0</v>
       </c>
       <c r="C32" s="18">
-        <f>SUM(C17+C18)*28%</f>
-        <v>6665.1066533333333</v>
+        <f>C18*0.19</f>
+        <v>0</v>
       </c>
       <c r="D32" s="18">
-        <f>SUM(D17+D18)*28%</f>
-        <v>6865.0598529333338</v>
+        <f>D18*0.19</f>
+        <v>0</v>
       </c>
       <c r="E32" s="18">
         <f t="shared" si="6"/>
-        <v>20807.417839599999</v>
-      </c>
-      <c r="F32">
-        <f>(F17+F18)*0.028</f>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <f>(G17+G18)*0.28</f>
-        <v>20807.347839599999</v>
-      </c>
-      <c r="H32" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="I32" s="27">
-        <f>F32+G32-E32</f>
-        <v>-6.9999999999708962E-2</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-    </row>
-    <row r="33" spans="1:10" ht="13.5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="18">
-        <f>B19*0.09</f>
+        <f>B19*30%</f>
         <v>0</v>
       </c>
       <c r="C33" s="18">
-        <f>C19*0.09</f>
+        <f>C19*30%</f>
         <v>0</v>
       </c>
       <c r="D33" s="18">
-        <f>D19*0.09</f>
+        <f>D19*30%</f>
         <v>0</v>
       </c>
       <c r="E33" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="34" spans="1:10" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>18</v>
+    </row>
+    <row r="34" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="B34" s="18">
-        <f>B20*0.08</f>
+        <f>B20*0.18</f>
         <v>0</v>
       </c>
       <c r="C34" s="18">
-        <f>C20*0.08</f>
+        <f>C20*0.18</f>
         <v>0</v>
       </c>
       <c r="D34" s="18">
-        <f>D20*0.08</f>
+        <f>D20*0.18</f>
         <v>0</v>
       </c>
       <c r="E34" s="18">
@@ -1732,342 +1634,260 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B35" s="18">
-        <f>B21*0.19</f>
-        <v>0</v>
+        <f>(B21+B23)*1%</f>
+        <v>211.20000000000002</v>
       </c>
       <c r="C35" s="18">
-        <f>C21*0.19</f>
-        <v>4510.9800000000005</v>
+        <f>(C21+C23)*1%</f>
+        <v>217.536</v>
       </c>
       <c r="D35" s="18">
-        <f>D21*0.19</f>
-        <v>4545.18</v>
+        <f>(D21+D23)*1%</f>
+        <v>224.06207999999998</v>
       </c>
       <c r="E35" s="18">
         <f t="shared" si="6"/>
-        <v>9056.16</v>
-      </c>
-      <c r="F35" s="26">
-        <f>F21*0.19</f>
-        <v>4528.08</v>
-      </c>
-      <c r="G35" s="26">
-        <f>G21*0.19</f>
-        <v>4528.08</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="13.5" x14ac:dyDescent="0.35">
+        <v>652.79808000000003</v>
+      </c>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B36" s="18">
-        <f>B22*30%</f>
-        <v>0</v>
+        <f>(B22+B24)*2%</f>
+        <v>309.60000000000002</v>
       </c>
       <c r="C36" s="18">
-        <f>C22*30%</f>
-        <v>0</v>
+        <f>(C22+C24)*2%</f>
+        <v>318.88799999999998</v>
       </c>
       <c r="D36" s="18">
-        <f>D22*30%</f>
-        <v>0</v>
+        <f>(D22+D24)*2%</f>
+        <v>328.45463999999998</v>
       </c>
       <c r="E36" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="18">
-        <f>B23*0.18</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="18">
-        <f>C23*0.18</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="18">
-        <f>D23*0.18</f>
-        <v>0</v>
+        <v>956.94263999999998</v>
+      </c>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:11" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="19">
+        <f>SUM(B28:B36)</f>
+        <v>11938.800000000001</v>
+      </c>
+      <c r="C37" s="19">
+        <f>SUM(C28:C36)</f>
+        <v>12296.964000000002</v>
+      </c>
+      <c r="D37" s="19">
+        <f>SUM(D28:D36)</f>
+        <v>14642.616063000001</v>
       </c>
       <c r="E37" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="18">
-        <f>(B24+B26)*1%</f>
-        <v>120</v>
-      </c>
-      <c r="C38" s="18">
-        <f>(C24+C26)*1%</f>
-        <v>123.60000000000001</v>
-      </c>
-      <c r="D38" s="18">
-        <f>(D24+D26)*1%</f>
-        <v>127.30799999999999</v>
-      </c>
-      <c r="E38" s="18">
-        <f t="shared" si="6"/>
-        <v>370.90800000000002</v>
-      </c>
-      <c r="F38" s="27">
-        <f>E38</f>
-        <v>370.90800000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="18">
-        <f>(B25+B27)*2%</f>
-        <v>180</v>
-      </c>
-      <c r="C39" s="18">
-        <f>(C25+C27)*2%</f>
-        <v>185.4</v>
-      </c>
-      <c r="D39" s="18">
-        <f>(D25+D27)*2%</f>
-        <v>190.96200000000002</v>
+        <v>38878.380063000004</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:11" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A38" s="8"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="19">
+        <f>SUM(B11,B25,B37)</f>
+        <v>89583.244444444441</v>
+      </c>
+      <c r="C39" s="19">
+        <f>SUM(C11,C25,C37)</f>
+        <v>92270.741777777788</v>
+      </c>
+      <c r="D39" s="19">
+        <f>SUM(D11,D25,D37)</f>
+        <v>104336.8780741111</v>
       </c>
       <c r="E39" s="18">
-        <f t="shared" si="6"/>
-        <v>556.36199999999997</v>
-      </c>
-      <c r="F39" s="27">
-        <f>E39</f>
-        <v>556.36199999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A40" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="19">
-        <f>SUM(B31:B39)</f>
-        <v>19543.851613333336</v>
-      </c>
-      <c r="C40" s="19">
-        <f>SUM(C31:C39)</f>
-        <v>27951.284941733335</v>
-      </c>
-      <c r="D40" s="19">
-        <f>SUM(D31:D39)</f>
-        <v>28688.694089985336</v>
-      </c>
-      <c r="E40" s="18">
-        <f t="shared" si="6"/>
-        <v>76183.830645052003</v>
-      </c>
-      <c r="F40" s="31">
-        <f>SUM(F31:F39)</f>
-        <v>50848.284805452007</v>
-      </c>
-      <c r="G40" s="2">
-        <f>SUM(G31:G39)</f>
-        <v>25335.427839600001</v>
-      </c>
-      <c r="H40" s="31">
-        <f>SUM(F40:G40)</f>
-        <v>76183.712645052001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A41" s="8"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+        <f>SUM(B39:D39)</f>
+        <v>286190.86429633328</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="3"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:10" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" s="19">
-        <f>SUM(B14,B28,B40)</f>
-        <v>110854.77672444444</v>
-      </c>
-      <c r="C42" s="19">
-        <f>SUM(C14,C28,C40)</f>
-        <v>158113.15686173335</v>
-      </c>
-      <c r="D42" s="19">
-        <f>SUM(D14,D28,D40)</f>
-        <v>162223.16216758534</v>
+    <row r="42" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="24">
+        <v>1000</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="24">
+        <v>1000</v>
       </c>
       <c r="E42" s="18">
         <f>SUM(B42:D42)</f>
-        <v>431191.0957537631</v>
-      </c>
-      <c r="F42" s="31">
-        <f>F14+F28+F40</f>
-        <v>307711.16556638532</v>
-      </c>
-      <c r="G42" s="29">
-        <f>G14+G28+G40</f>
-        <v>123479.3844096</v>
-      </c>
-      <c r="H42" s="31">
-        <f>SUM(F42:G42)</f>
-        <v>431190.54997598531</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="3"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:10" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:10" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="25">
-        <v>15850</v>
-      </c>
-      <c r="C45" s="25">
-        <v>29800</v>
-      </c>
-      <c r="D45" s="25">
-        <v>25700</v>
-      </c>
-      <c r="E45" s="18">
-        <f>SUM(B45:D45)</f>
-        <v>71350</v>
-      </c>
-      <c r="F45" s="28">
-        <v>67430</v>
-      </c>
-      <c r="G45" s="28">
-        <v>49930</v>
-      </c>
-      <c r="H45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+        <v>3000</v>
+      </c>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+    </row>
+    <row r="43" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="25">
-        <v>8835</v>
-      </c>
-      <c r="C46" s="25">
-        <v>18650</v>
-      </c>
-      <c r="D46" s="25">
-        <v>18525</v>
-      </c>
-      <c r="E46" s="18">
-        <f>SUM(B46:D46)</f>
-        <v>46010</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A47" s="8" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="18">
+        <f>SUM(B43:D43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A44" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="19">
-        <f>SUM(B45:B46)</f>
-        <v>24685</v>
-      </c>
-      <c r="C47" s="19">
-        <f>SUM(C45:C46)</f>
-        <v>48450</v>
-      </c>
-      <c r="D47" s="19">
-        <f>SUM(D45:D46)</f>
-        <v>44225</v>
+      <c r="B44" s="19">
+        <f>SUM(B42:B43)</f>
+        <v>1000</v>
+      </c>
+      <c r="C44" s="19">
+        <f>SUM(C42:C43)</f>
+        <v>1000</v>
+      </c>
+      <c r="D44" s="19">
+        <f>SUM(D42:D43)</f>
+        <v>1000</v>
+      </c>
+      <c r="E44" s="18">
+        <f>SUM(B44:D44)</f>
+        <v>3000</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+    </row>
+    <row r="45" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="9">
+        <v>4000</v>
+      </c>
+      <c r="C47" s="9">
+        <v>4000</v>
+      </c>
+      <c r="D47" s="9">
+        <v>4000</v>
       </c>
       <c r="E47" s="18">
-        <f>SUM(B47:D47)</f>
-        <v>117360</v>
-      </c>
-      <c r="F47" s="32">
-        <f>F45</f>
-        <v>67430</v>
-      </c>
-      <c r="G47" s="32">
-        <f>G45</f>
-        <v>49930</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A48" s="3"/>
-      <c r="B48" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A49" s="6" t="s">
-        <v>31</v>
+        <f t="shared" ref="E47:E55" si="7">SUM(B47:D47)</f>
+        <v>12000</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="K47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:11" ht="51" x14ac:dyDescent="0.35">
+      <c r="E49" s="18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="9">
-        <v>14500</v>
-      </c>
-      <c r="C50" s="9">
-        <v>10000</v>
-      </c>
-      <c r="D50" s="9">
-        <v>10000</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
       <c r="E50" s="18">
-        <f t="shared" ref="E50:E58" si="7">SUM(B50:D50)</f>
-        <v>34500</v>
-      </c>
-      <c r="F50" s="27">
-        <f>E50</f>
-        <v>34500</v>
-      </c>
-      <c r="K50" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2077,21 +1897,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="B52" s="9">
+        <v>600</v>
+      </c>
+      <c r="C52" s="9">
+        <v>600</v>
+      </c>
+      <c r="D52" s="9">
+        <v>600</v>
+      </c>
       <c r="E52" s="18">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+        <v>1800</v>
+      </c>
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2101,9 +1928,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2113,126 +1940,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="9">
-        <v>1000</v>
-      </c>
-      <c r="C55" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D55" s="9">
-        <v>1000</v>
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A55" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="19">
+        <f>SUM(B47:B54)</f>
+        <v>4600</v>
+      </c>
+      <c r="C55" s="19">
+        <f>SUM(C47:C54)</f>
+        <v>4600</v>
+      </c>
+      <c r="D55" s="19">
+        <f>SUM(D47:D54)</f>
+        <v>4600</v>
       </c>
       <c r="E55" s="18">
         <f t="shared" si="7"/>
-        <v>3000</v>
-      </c>
-      <c r="F55" s="27">
-        <f>E55</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>30</v>
+        <v>13800</v>
+      </c>
+      <c r="F55" s="28"/>
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A57" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A58" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" s="19">
-        <f>SUM(B50:B57)</f>
-        <v>15500</v>
-      </c>
-      <c r="C58" s="19">
-        <f>SUM(C50:C57)</f>
-        <v>11000</v>
-      </c>
-      <c r="D58" s="19">
-        <f>SUM(D50:D57)</f>
-        <v>11000</v>
-      </c>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="18">
-        <f t="shared" si="7"/>
-        <v>37500</v>
-      </c>
-      <c r="F58" s="29">
-        <f>SUM(F50:F57)</f>
-        <v>37500</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="2" customFormat="1" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A59" s="3"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A60" s="6" t="s">
-        <v>32</v>
+        <f t="shared" ref="E58:E69" si="8">SUM(B58:D58)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="26"/>
+    </row>
+    <row r="59" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-    </row>
-    <row r="61" spans="1:11" ht="27" x14ac:dyDescent="0.35">
-      <c r="A61" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B61" s="9">
-        <v>25479</v>
-      </c>
+      <c r="E60" s="18">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="18">
-        <f t="shared" ref="E61:E72" si="8">SUM(B61:D61)</f>
-        <v>25479</v>
-      </c>
-      <c r="G61" s="27">
-        <f>E61</f>
-        <v>25479</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="B62" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C62" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D62" s="9">
+        <v>10000</v>
+      </c>
       <c r="E62" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -2242,9 +2057,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -2254,9 +2069,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -2265,418 +2080,389 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="K65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="9">
+        <v>10760</v>
+      </c>
+      <c r="C66" s="9">
+        <f>B66*1.05</f>
+        <v>11298</v>
+      </c>
+      <c r="D66" s="9">
+        <f>C66*1.05</f>
+        <v>11862.9</v>
+      </c>
       <c r="E66" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
+        <v>33920.9</v>
+      </c>
+      <c r="K66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="B67" s="9">
+        <v>16000</v>
+      </c>
+      <c r="C67" s="9">
+        <f>B67*1.03</f>
+        <v>16480</v>
+      </c>
+      <c r="D67" s="9">
+        <f>C67*1.03</f>
+        <v>16974.400000000001</v>
+      </c>
       <c r="E67" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
+        <v>49454.400000000001</v>
+      </c>
+      <c r="K67" t="s">
+        <v>91</v>
+      </c>
+      <c r="L67" t="s">
+        <v>92</v>
+      </c>
+      <c r="M67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="B68" s="9">
+        <f>2*K68+L68+K66*M68</f>
+        <v>4266</v>
+      </c>
+      <c r="C68" s="9">
+        <f>B68*1.03</f>
+        <v>4393.9800000000005</v>
+      </c>
+      <c r="D68" s="9">
+        <f>C68*1.03</f>
+        <v>4525.7994000000008</v>
+      </c>
       <c r="E68" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="40.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9">
-        <f>B69*1.05</f>
-        <v>0</v>
-      </c>
-      <c r="D69" s="9">
-        <f>C69*1.05</f>
-        <v>0</v>
+        <v>13185.779399999999</v>
+      </c>
+      <c r="K68">
+        <f>200+6+24+3+2+8+150+12+95+68+102+6+210</f>
+        <v>886</v>
+      </c>
+      <c r="L68">
+        <v>2350</v>
+      </c>
+      <c r="M68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A69" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B69" s="19">
+        <f>SUM(B58:B68)</f>
+        <v>41026</v>
+      </c>
+      <c r="C69" s="19">
+        <f>SUM(C58:C68)</f>
+        <v>42171.98</v>
+      </c>
+      <c r="D69" s="19">
+        <f>SUM(D58:D68)</f>
+        <v>43363.099400000006</v>
       </c>
       <c r="E69" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>126561.07940000002</v>
+      </c>
+      <c r="G69" s="26"/>
+    </row>
+    <row r="70" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="3"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
-      <c r="E70" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9">
-        <f>B71*1.03</f>
-        <v>0</v>
-      </c>
-      <c r="D71" s="9">
-        <f>C71*1.03</f>
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="B71" s="18">
+        <f>B11+B25+B37+B44+B55-B51</f>
+        <v>95183.244444444441</v>
+      </c>
+      <c r="C71" s="18">
+        <f>C11+C25+C37+C44+C55-C51</f>
+        <v>97870.741777777788</v>
+      </c>
+      <c r="D71" s="18">
+        <f>D11+D25+D37+D44+D55-D51</f>
+        <v>109936.8780741111</v>
       </c>
       <c r="E71" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A72" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="19">
-        <f>SUM(B61:B71)</f>
-        <v>25479</v>
-      </c>
-      <c r="C72" s="19">
-        <f>SUM(C61:C71)</f>
-        <v>0</v>
-      </c>
-      <c r="D72" s="19">
-        <f>SUM(D61:D71)</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="18">
-        <f t="shared" si="8"/>
-        <v>25479</v>
-      </c>
-      <c r="F72">
-        <f>SUM(F61:F71)</f>
-        <v>0</v>
-      </c>
-      <c r="G72" s="27">
-        <f>SUM(G61:G71)</f>
-        <v>25479</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="3"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-    </row>
-    <row r="74" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="18">
-        <f>B14+B28+B40+B47+B58-B54</f>
-        <v>151039.77672444444</v>
-      </c>
-      <c r="C74" s="18">
-        <f>C14+C28+C40+C47+C58-C54</f>
-        <v>217563.15686173335</v>
-      </c>
-      <c r="D74" s="18">
-        <f>D14+D28+D40+D47+D58-D54</f>
-        <v>217448.16216758534</v>
-      </c>
-      <c r="E74" s="18">
-        <f>SUM(B74:D74)</f>
-        <v>586051.0957537631</v>
-      </c>
-      <c r="F74" s="27">
-        <f>F42+F47+F58</f>
-        <v>412641.16556638532</v>
-      </c>
-      <c r="G74" s="27">
-        <f>G42+G47+G58</f>
-        <v>173409.3844096</v>
-      </c>
-      <c r="H74" s="27">
-        <f>SUM(F74:G74)</f>
-        <v>586050.54997598531</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="3"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-    </row>
-    <row r="76" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+        <f>SUM(B71:D71)</f>
+        <v>302990.86429633328</v>
+      </c>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+    </row>
+    <row r="72" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="3"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="18">
-        <f>B14+B28+B40+B47+B58+B72</f>
-        <v>176518.77672444444</v>
-      </c>
-      <c r="C76" s="18">
-        <f>C14+C28+C40+C47+C58+C72</f>
-        <v>217563.15686173335</v>
-      </c>
-      <c r="D76" s="18">
-        <f>D14+D28+D40+D47+D58+D72</f>
-        <v>217448.16216758534</v>
-      </c>
-      <c r="E76" s="18">
-        <f>SUM(B76:D76)</f>
-        <v>611530.0957537631</v>
-      </c>
-      <c r="F76" s="27">
-        <f>F74+F72</f>
-        <v>412641.16556638532</v>
-      </c>
-      <c r="G76" s="27">
-        <f>G74+G72</f>
-        <v>198888.3844096</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="3"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-    </row>
-    <row r="78" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+      <c r="B73" s="18">
+        <f>B11+B25+B37+B44+B55+B69</f>
+        <v>136209.24444444443</v>
+      </c>
+      <c r="C73" s="18">
+        <f>C11+C25+C37+C44+C55+C69</f>
+        <v>140042.7217777778</v>
+      </c>
+      <c r="D73" s="18">
+        <f>D11+D25+D37+D44+D55+D69</f>
+        <v>153299.9774741111</v>
+      </c>
+      <c r="E73" s="18">
+        <f>SUM(B73:D73)</f>
+        <v>429551.94369633333</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+    </row>
+    <row r="74" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="3"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="18">
-        <f>B74*0.555</f>
-        <v>83827.076082066676</v>
-      </c>
-      <c r="C78" s="18">
-        <f>C74*55.5%</f>
-        <v>120747.55205826202</v>
-      </c>
-      <c r="D78" s="18">
-        <f>D74*55.5%</f>
-        <v>120683.73000300987</v>
-      </c>
-      <c r="E78" s="18">
-        <f>SUM(B78:D78)</f>
-        <v>325258.35814333858</v>
-      </c>
-      <c r="F78" s="26">
-        <f>F74*0.555</f>
-        <v>229015.84688934387</v>
-      </c>
-      <c r="G78" s="26">
-        <f>G74*0.555</f>
-        <v>96242.208347328007</v>
-      </c>
-      <c r="H78" s="26">
-        <f>SUM(F78:G78)</f>
-        <v>325258.05523667188</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="3"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-    </row>
-    <row r="80" spans="1:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="A80" s="4" t="s">
+      <c r="B75" s="18">
+        <f>B71*0.555</f>
+        <v>52826.700666666671</v>
+      </c>
+      <c r="C75" s="18">
+        <f>C71*55.5%</f>
+        <v>54318.261686666679</v>
+      </c>
+      <c r="D75" s="18">
+        <f>D71*55.5%</f>
+        <v>61014.967331131666</v>
+      </c>
+      <c r="E75" s="18">
+        <f>SUM(B75:D75)</f>
+        <v>168159.92968446502</v>
+      </c>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="3"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="1:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="A77" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B80" s="18">
-        <f>B76+B78</f>
-        <v>260345.8528065111</v>
-      </c>
-      <c r="C80" s="18">
-        <f>C76+C78</f>
-        <v>338310.70891999535</v>
-      </c>
-      <c r="D80" s="18">
-        <f>D76+D78</f>
-        <v>338131.89217059524</v>
-      </c>
-      <c r="E80" s="18">
-        <f>SUM(B80:D80)</f>
-        <v>936788.45389710169</v>
-      </c>
-      <c r="F80" s="26">
-        <f>F76+F78</f>
-        <v>641657.01245572919</v>
-      </c>
-      <c r="G80" s="26">
-        <f>G76+G78</f>
-        <v>295130.592756928</v>
-      </c>
-      <c r="H80" s="26">
-        <f>SUM(F80:G80)</f>
-        <v>936787.60521265725</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A81" s="1"/>
+      <c r="B77" s="18">
+        <f>B73+B75</f>
+        <v>189035.9451111111</v>
+      </c>
+      <c r="C77" s="18">
+        <f>C73+C75</f>
+        <v>194360.98346444446</v>
+      </c>
+      <c r="D77" s="18">
+        <f>D73+D75</f>
+        <v>214314.94480524276</v>
+      </c>
+      <c r="E77" s="18">
+        <f>SUM(B77:D77)</f>
+        <v>597711.87338079838</v>
+      </c>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:13" ht="15" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A82" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="82" spans="1:5" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82">
-        <f>F80/E80</f>
-        <v>0.68495401473661821</v>
-      </c>
-      <c r="G82">
-        <f>G80/E80</f>
-        <v>0.31504507931237336</v>
-      </c>
-      <c r="H82">
-        <f>SUM(F82:G82)</f>
-        <v>0.99999909404899157</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
-        <v>6</v>
+    </row>
+    <row r="83" spans="1:5" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A84" s="1" t="s">
-        <v>15</v>
+    <row r="84" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A84" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="1"/>
+    <row r="85" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A85" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="14" t="s">
-        <v>16</v>
+    <row r="86" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A86" s="12" t="s">
+        <v>0</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A87" s="12" t="s">
-        <v>60</v>
+    <row r="87" spans="1:5" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="13" t="s">
+        <v>1</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A88" s="12" t="s">
-        <v>17</v>
-      </c>
+    <row r="88" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A89" s="12" t="s">
-        <v>0</v>
+    <row r="89" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:8" ht="15.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="13" t="s">
-        <v>1</v>
+    <row r="90" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A91" s="1"/>
+    <row r="91" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A93" s="1" t="s">
-        <v>61</v>
-      </c>
+    <row r="93" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A94" s="1" t="s">
-        <v>62</v>
-      </c>
+    <row r="94" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="95" spans="1:5" ht="15" x14ac:dyDescent="0.4">
+      <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2733,25 +2519,22 @@
       <c r="E103" s="1"/>
     </row>
     <row r="104" spans="1:5" ht="15" x14ac:dyDescent="0.4">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
     </row>
     <row r="105" spans="1:5" ht="15" x14ac:dyDescent="0.4">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
     </row>
     <row r="106" spans="1:5" ht="15" x14ac:dyDescent="0.4">
-      <c r="A106" s="1"/>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
     </row>
     <row r="107" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="B107" s="11"/>
@@ -2890,24 +2673,6 @@
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
-    </row>
-    <row r="130" spans="2:5" ht="15" x14ac:dyDescent="0.4">
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-    </row>
-    <row r="131" spans="2:5" ht="15" x14ac:dyDescent="0.4">
-      <c r="B131" s="11"/>
-      <c r="C131" s="11"/>
-      <c r="D131" s="11"/>
-      <c r="E131" s="11"/>
-    </row>
-    <row r="132" spans="2:5" ht="15" x14ac:dyDescent="0.4">
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -2916,7 +2681,7 @@
   <pageSetup scale="82" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="47" max="4" man="1"/>
+    <brk id="44" max="4" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/CSSI_2019/forms/CSSI_2019_Budget_AmyRoberts.xlsx
+++ b/CSSI_2019/forms/CSSI_2019_Budget_AmyRoberts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canto\Repositories\SI2.git\CSSI_2019\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CEF273-E5BC-46A7-9780-9609A6E4BDE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AC64B1-3754-4967-96EB-0125CC7C0BD8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="98">
   <si>
     <t>On-Campus, Instruction 42%</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -237,9 +237,6 @@
     <t>Department:  Physics</t>
   </si>
   <si>
-    <t>Project Period:  07/01/2018-06/30/2021</t>
-  </si>
-  <si>
     <t>CY Contract (12 mo.)</t>
   </si>
   <si>
@@ -325,6 +322,15 @@
   </si>
   <si>
     <t>Project Title:  Elements: Improving tools based on data-description standards for gigabyte-scale data sets</t>
+  </si>
+  <si>
+    <t>cost per credit hour</t>
+  </si>
+  <si>
+    <t>" A computing device is considered a supply if the acquisition cost is less than the lesser of the capitalization level established by the proposer or $5,000, regardless of the length of its useful life. In the specific case of computing devices, charging as a direct cost is allowable for devices that are essential and allocable, but not solely dedicated, to the performance of the NSF project."</t>
+  </si>
+  <si>
+    <t>Project Period:  11/1/2019-10/30/2022</t>
   </si>
 </sst>
 </file>
@@ -928,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -945,7 +951,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -963,7 +969,7 @@
     </row>
     <row r="3" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -972,7 +978,7 @@
     </row>
     <row r="4" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1001,7 +1007,7 @@
         <v>38</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13.9" x14ac:dyDescent="0.4">
@@ -1013,12 +1019,12 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="21">
         <f>$K8*1.03*10%*0</f>
@@ -1043,14 +1049,14 @@
     </row>
     <row r="9" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="9">
         <f>K9*0/10</f>
         <v>0</v>
       </c>
       <c r="C9" s="9">
-        <f t="shared" ref="C8:D10" si="1">B9*1.03</f>
+        <f t="shared" ref="C9:D10" si="1">B9*1.03</f>
         <v>0</v>
       </c>
       <c r="D9" s="9">
@@ -1067,7 +1073,7 @@
     </row>
     <row r="10" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10" s="21">
         <f>K9*(1/9)</f>
@@ -1125,12 +1131,12 @@
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="K13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="9">
         <f>K14*0</f>
@@ -1153,36 +1159,36 @@
         <v>57591</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="9">
         <f>K15*0.8</f>
-        <v>33600</v>
+        <v>34800</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" ref="C15:D16" si="3">(B15*3%)+B15</f>
-        <v>34608</v>
+        <v>35844</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="3"/>
-        <v>35646.239999999998</v>
+        <v>36919.32</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" si="2"/>
-        <v>103854.23999999999</v>
+        <v>107563.32</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="26"/>
       <c r="K15" s="17">
-        <v>42000</v>
+        <v>43500</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.5" x14ac:dyDescent="0.35">
@@ -1227,7 +1233,7 @@
     </row>
     <row r="18" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" s="9">
         <v>0</v>
@@ -1250,7 +1256,7 @@
         <v>47484</v>
       </c>
       <c r="L18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
@@ -1293,43 +1299,43 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" t="s">
         <v>69</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>70</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>71</v>
-      </c>
-      <c r="N20" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="9">
         <f>K21*L21*M21*N21</f>
-        <v>11520</v>
+        <v>17280</v>
       </c>
       <c r="C21" s="9">
         <f t="shared" si="5"/>
-        <v>11865.6</v>
+        <v>17798.400000000001</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" si="5"/>
-        <v>12221.568000000001</v>
+        <v>18332.352000000003</v>
       </c>
       <c r="E21" s="18">
         <f t="shared" si="2"/>
-        <v>35607.167999999998</v>
+        <v>53410.752000000008</v>
       </c>
       <c r="K21" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" s="17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M21" s="17">
         <v>32</v>
@@ -1340,7 +1346,7 @@
     </row>
     <row r="22" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" s="9">
         <f>K22*L22*M22*N22</f>
@@ -1373,30 +1379,30 @@
     </row>
     <row r="23" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="9">
         <f>K23*L23*M23*N23</f>
-        <v>9600</v>
+        <v>12000</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="5"/>
-        <v>9888</v>
+        <v>12360</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="5"/>
-        <v>10184.64</v>
+        <v>12730.8</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" si="2"/>
-        <v>29672.639999999999</v>
+        <v>37090.800000000003</v>
       </c>
       <c r="F23" s="26"/>
       <c r="K23" s="17">
         <v>2</v>
       </c>
       <c r="L23" s="17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M23" s="17">
         <v>32</v>
@@ -1407,7 +1413,7 @@
     </row>
     <row r="24" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="9">
         <f>K24*L24*M24*N24</f>
@@ -1445,19 +1451,19 @@
       </c>
       <c r="B25" s="19">
         <f>SUM(B14:B24)</f>
-        <v>70200</v>
+        <v>79560</v>
       </c>
       <c r="C25" s="19">
         <f>SUM(C14:C24)</f>
-        <v>72306</v>
+        <v>81946.8</v>
       </c>
       <c r="D25" s="19">
         <f>SUM(D14:D24)</f>
-        <v>74475.179999999993</v>
+        <v>84405.204000000012</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" si="2"/>
-        <v>216981.18</v>
+        <v>245912.00400000002</v>
       </c>
       <c r="G25" s="28"/>
     </row>
@@ -1479,7 +1485,7 @@
     </row>
     <row r="28" spans="1:14" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="18">
         <f>B11*27%</f>
@@ -1505,19 +1511,19 @@
       </c>
       <c r="B29" s="18">
         <f>SUM(B14+B15)*28%</f>
-        <v>9408</v>
+        <v>9744.0000000000018</v>
       </c>
       <c r="C29" s="18">
         <f>SUM(C14+C15)*28%</f>
-        <v>9690.2400000000016</v>
+        <v>10036.320000000002</v>
       </c>
       <c r="D29" s="18">
         <f>SUM(D14+D15)*28%</f>
-        <v>9980.9472000000005</v>
+        <v>10337.409600000001</v>
       </c>
       <c r="E29" s="18">
         <f t="shared" si="6"/>
-        <v>29079.1872</v>
+        <v>30117.729600000006</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="26"/>
@@ -1640,19 +1646,19 @@
       </c>
       <c r="B35" s="18">
         <f>(B21+B23)*1%</f>
-        <v>211.20000000000002</v>
+        <v>292.8</v>
       </c>
       <c r="C35" s="18">
         <f>(C21+C23)*1%</f>
-        <v>217.536</v>
+        <v>301.584</v>
       </c>
       <c r="D35" s="18">
         <f>(D21+D23)*1%</f>
-        <v>224.06207999999998</v>
+        <v>310.63152000000002</v>
       </c>
       <c r="E35" s="18">
         <f t="shared" si="6"/>
-        <v>652.79808000000003</v>
+        <v>905.01552000000004</v>
       </c>
       <c r="F35" s="26"/>
     </row>
@@ -1684,19 +1690,19 @@
       </c>
       <c r="B37" s="19">
         <f>SUM(B28:B36)</f>
-        <v>11938.800000000001</v>
+        <v>12356.400000000001</v>
       </c>
       <c r="C37" s="19">
         <f>SUM(C28:C36)</f>
-        <v>12296.964000000002</v>
+        <v>12727.092000000004</v>
       </c>
       <c r="D37" s="19">
         <f>SUM(D28:D36)</f>
-        <v>14642.616063000001</v>
+        <v>15085.647903000003</v>
       </c>
       <c r="E37" s="18">
         <f t="shared" si="6"/>
-        <v>38878.380063000004</v>
+        <v>40169.13990300001</v>
       </c>
       <c r="F37" s="29"/>
       <c r="H37" s="29"/>
@@ -1714,19 +1720,19 @@
       </c>
       <c r="B39" s="19">
         <f>SUM(B11,B25,B37)</f>
-        <v>89583.244444444441</v>
+        <v>99360.844444444432</v>
       </c>
       <c r="C39" s="19">
         <f>SUM(C11,C25,C37)</f>
-        <v>92270.741777777788</v>
+        <v>102341.66977777779</v>
       </c>
       <c r="D39" s="19">
         <f>SUM(D11,D25,D37)</f>
-        <v>104336.8780741111</v>
+        <v>114709.93391411113</v>
       </c>
       <c r="E39" s="18">
         <f>SUM(B39:D39)</f>
-        <v>286190.86429633328</v>
+        <v>316412.44813633332</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="28"/>
@@ -1753,17 +1759,17 @@
         <v>23</v>
       </c>
       <c r="B42" s="24">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C42" s="24">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D42" s="24">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E42" s="18">
         <f>SUM(B42:D42)</f>
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -1786,19 +1792,19 @@
       </c>
       <c r="B44" s="19">
         <f>SUM(B42:B43)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C44" s="19">
         <f>SUM(C42:C43)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="D44" s="19">
         <f>SUM(D42:D43)</f>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E44" s="18">
         <f>SUM(B44:D44)</f>
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
@@ -1826,13 +1832,16 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
+      <c r="K46" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B47" s="9">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="C47" s="9">
         <v>4000</v>
@@ -1842,11 +1851,11 @@
       </c>
       <c r="E47" s="18">
         <f t="shared" ref="E47:E55" si="7">SUM(B47:D47)</f>
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="F47" s="26"/>
       <c r="K47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="13.5" x14ac:dyDescent="0.35">
@@ -1857,7 +1866,7 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="18">
-        <f t="shared" si="7"/>
+        <f>SUM(B48:D48)</f>
         <v>0</v>
       </c>
     </row>
@@ -1946,7 +1955,7 @@
       </c>
       <c r="B55" s="19">
         <f>SUM(B47:B54)</f>
-        <v>4600</v>
+        <v>2600</v>
       </c>
       <c r="C55" s="19">
         <f>SUM(C47:C54)</f>
@@ -1958,7 +1967,7 @@
       </c>
       <c r="E55" s="18">
         <f t="shared" si="7"/>
-        <v>13800</v>
+        <v>11800</v>
       </c>
       <c r="F55" s="28"/>
     </row>
@@ -1980,14 +1989,16 @@
     </row>
     <row r="58" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A58" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B58" s="9"/>
+        <v>86</v>
+      </c>
+      <c r="B58" s="9">
+        <v>12204</v>
+      </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
       <c r="E58" s="18">
         <f t="shared" ref="E58:E69" si="8">SUM(B58:D58)</f>
-        <v>0</v>
+        <v>12204</v>
       </c>
       <c r="G58" s="26"/>
     </row>
@@ -2041,7 +2052,7 @@
         <v>10000</v>
       </c>
       <c r="E62" s="18">
-        <f t="shared" si="8"/>
+        <f>SUM(B62:D62)</f>
         <v>30000</v>
       </c>
     </row>
@@ -2081,7 +2092,10 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+      <c r="L65" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="40.5" x14ac:dyDescent="0.35">
@@ -2089,22 +2103,26 @@
         <v>63</v>
       </c>
       <c r="B66" s="9">
-        <v>10760</v>
+        <f>2*K66*L66</f>
+        <v>8952</v>
       </c>
       <c r="C66" s="9">
         <f>B66*1.05</f>
-        <v>11298</v>
+        <v>9399.6</v>
       </c>
       <c r="D66" s="9">
         <f>C66*1.05</f>
-        <v>11862.9</v>
+        <v>9869.58</v>
       </c>
       <c r="E66" s="18">
         <f t="shared" si="8"/>
-        <v>33920.9</v>
+        <v>28221.18</v>
       </c>
       <c r="K66">
         <v>12</v>
+      </c>
+      <c r="L66">
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
@@ -2112,28 +2130,28 @@
         <v>35</v>
       </c>
       <c r="B67" s="9">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="C67" s="9">
         <f>B67*1.03</f>
-        <v>16480</v>
+        <v>0</v>
       </c>
       <c r="D67" s="9">
         <f>C67*1.03</f>
-        <v>16974.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E67" s="18">
         <f t="shared" si="8"/>
-        <v>49454.400000000001</v>
+        <v>0</v>
       </c>
       <c r="K67" t="s">
+        <v>90</v>
+      </c>
+      <c r="L67" t="s">
         <v>91</v>
       </c>
-      <c r="L67" t="s">
-        <v>92</v>
-      </c>
       <c r="M67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
@@ -2173,19 +2191,19 @@
       </c>
       <c r="B69" s="19">
         <f>SUM(B58:B68)</f>
-        <v>41026</v>
+        <v>35422</v>
       </c>
       <c r="C69" s="19">
         <f>SUM(C58:C68)</f>
-        <v>42171.98</v>
+        <v>23793.579999999998</v>
       </c>
       <c r="D69" s="19">
         <f>SUM(D58:D68)</f>
-        <v>43363.099400000006</v>
+        <v>24395.379400000002</v>
       </c>
       <c r="E69" s="18">
         <f t="shared" si="8"/>
-        <v>126561.07940000002</v>
+        <v>83610.959400000007</v>
       </c>
       <c r="G69" s="26"/>
     </row>
@@ -2202,19 +2220,19 @@
       </c>
       <c r="B71" s="18">
         <f>B11+B25+B37+B44+B55-B51</f>
-        <v>95183.244444444441</v>
+        <v>103160.84444444443</v>
       </c>
       <c r="C71" s="18">
         <f>C11+C25+C37+C44+C55-C51</f>
-        <v>97870.741777777788</v>
+        <v>108141.66977777779</v>
       </c>
       <c r="D71" s="18">
         <f>D11+D25+D37+D44+D55-D51</f>
-        <v>109936.8780741111</v>
+        <v>120509.93391411113</v>
       </c>
       <c r="E71" s="18">
         <f>SUM(B71:D71)</f>
-        <v>302990.86429633328</v>
+        <v>331812.44813633332</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
@@ -2233,19 +2251,19 @@
       </c>
       <c r="B73" s="18">
         <f>B11+B25+B37+B44+B55+B69</f>
-        <v>136209.24444444443</v>
+        <v>138582.84444444443</v>
       </c>
       <c r="C73" s="18">
         <f>C11+C25+C37+C44+C55+C69</f>
-        <v>140042.7217777778</v>
+        <v>131935.24977777779</v>
       </c>
       <c r="D73" s="18">
         <f>D11+D25+D37+D44+D55+D69</f>
-        <v>153299.9774741111</v>
+        <v>144905.31331411112</v>
       </c>
       <c r="E73" s="18">
         <f>SUM(B73:D73)</f>
-        <v>429551.94369633333</v>
+        <v>415423.40753633331</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
@@ -2263,19 +2281,19 @@
       </c>
       <c r="B75" s="18">
         <f>B71*0.555</f>
-        <v>52826.700666666671</v>
+        <v>57254.268666666663</v>
       </c>
       <c r="C75" s="18">
         <f>C71*55.5%</f>
-        <v>54318.261686666679</v>
+        <v>60018.626726666676</v>
       </c>
       <c r="D75" s="18">
         <f>D71*55.5%</f>
-        <v>61014.967331131666</v>
+        <v>66883.013322331681</v>
       </c>
       <c r="E75" s="18">
         <f>SUM(B75:D75)</f>
-        <v>168159.92968446502</v>
+        <v>184155.90871566502</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -2294,19 +2312,19 @@
       </c>
       <c r="B77" s="18">
         <f>B73+B75</f>
-        <v>189035.9451111111</v>
+        <v>195837.1131111111</v>
       </c>
       <c r="C77" s="18">
         <f>C73+C75</f>
-        <v>194360.98346444446</v>
+        <v>191953.87650444446</v>
       </c>
       <c r="D77" s="18">
         <f>D73+D75</f>
-        <v>214314.94480524276</v>
+        <v>211788.3266364428</v>
       </c>
       <c r="E77" s="18">
         <f>SUM(B77:D77)</f>
-        <v>597711.87338079838</v>
+        <v>599579.3162519983</v>
       </c>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>

--- a/CSSI_2019/forms/CSSI_2019_Budget_AmyRoberts.xlsx
+++ b/CSSI_2019/forms/CSSI_2019_Budget_AmyRoberts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canto\Repositories\SI2.git\CSSI_2019\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AC64B1-3754-4967-96EB-0125CC7C0BD8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6BC409-0F05-4734-8EB8-9822AA2BFE24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="21">
-        <f>$K8*1.03*1.03*10%*0</f>
-        <v>0</v>
+        <f>$K8*1.03*1.03*10%*1</f>
+        <v>7108.0300000000007</v>
       </c>
       <c r="D8" s="21">
-        <f>$K8*1.03*1.03*1.03*10%*1</f>
-        <v>7321.2709000000004</v>
+        <f>$K8*1.03*1.03*1.03*10%*0</f>
+        <v>0</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" ref="E8:E11" si="0">SUM(B8:D8)</f>
-        <v>7321.2709000000004</v>
+        <v>7108.0300000000007</v>
       </c>
       <c r="F8" s="26"/>
       <c r="K8" s="17">
@@ -1076,20 +1076,20 @@
         <v>84</v>
       </c>
       <c r="B10" s="21">
-        <f>K9*(1/9)</f>
-        <v>7444.4444444444443</v>
+        <f>K9*(1/10)</f>
+        <v>6700</v>
       </c>
       <c r="C10" s="21">
         <f t="shared" si="1"/>
-        <v>7667.7777777777783</v>
+        <v>6901</v>
       </c>
       <c r="D10" s="21">
         <f t="shared" si="1"/>
-        <v>7897.811111111112</v>
+        <v>7108.03</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" si="0"/>
-        <v>23010.033333333333</v>
+        <v>20709.03</v>
       </c>
       <c r="F10" s="26"/>
     </row>
@@ -1099,19 +1099,19 @@
       </c>
       <c r="B11" s="19">
         <f>SUM(B8:B10)</f>
-        <v>7444.4444444444443</v>
+        <v>6700</v>
       </c>
       <c r="C11" s="19">
         <f>SUM(C8:C10)</f>
-        <v>7667.7777777777783</v>
+        <v>14009.03</v>
       </c>
       <c r="D11" s="19">
         <f>SUM(D8:D10)</f>
-        <v>15219.082011111113</v>
+        <v>7108.03</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" si="0"/>
-        <v>30331.304233333336</v>
+        <v>27817.059999999998</v>
       </c>
       <c r="F11" s="26"/>
     </row>
@@ -1168,24 +1168,24 @@
       </c>
       <c r="B15" s="9">
         <f>K15*0.8</f>
-        <v>34800</v>
+        <v>33600</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" ref="C15:D16" si="3">(B15*3%)+B15</f>
-        <v>35844</v>
+        <v>34608</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="3"/>
-        <v>36919.32</v>
+        <v>35646.239999999998</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" si="2"/>
-        <v>107563.32</v>
+        <v>103854.23999999999</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="26"/>
       <c r="K15" s="17">
-        <v>43500</v>
+        <v>42000</v>
       </c>
       <c r="L15" t="s">
         <v>81</v>
@@ -1350,22 +1350,22 @@
       </c>
       <c r="B22" s="9">
         <f>K22*L22*M22*N22</f>
-        <v>6480</v>
+        <v>12960</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="5"/>
-        <v>6674.4</v>
+        <v>13348.8</v>
       </c>
       <c r="D22" s="9">
         <f t="shared" si="5"/>
-        <v>6874.6319999999996</v>
+        <v>13749.263999999999</v>
       </c>
       <c r="E22" s="18">
         <f t="shared" si="2"/>
-        <v>20029.031999999999</v>
+        <v>40058.063999999998</v>
       </c>
       <c r="K22" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22" s="17">
         <v>30</v>
@@ -1383,26 +1383,26 @@
       </c>
       <c r="B23" s="9">
         <f>K23*L23*M23*N23</f>
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="5"/>
-        <v>12360</v>
+        <v>8240</v>
       </c>
       <c r="D23" s="9">
         <f t="shared" si="5"/>
-        <v>12730.8</v>
+        <v>8487.2000000000007</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" si="2"/>
-        <v>37090.800000000003</v>
+        <v>24727.200000000001</v>
       </c>
       <c r="F23" s="26"/>
       <c r="K23" s="17">
         <v>2</v>
       </c>
       <c r="L23" s="17">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="M23" s="17">
         <v>32</v>
@@ -1451,19 +1451,19 @@
       </c>
       <c r="B25" s="19">
         <f>SUM(B14:B24)</f>
-        <v>79560</v>
+        <v>80840</v>
       </c>
       <c r="C25" s="19">
         <f>SUM(C14:C24)</f>
-        <v>81946.8</v>
+        <v>83265.2</v>
       </c>
       <c r="D25" s="19">
         <f>SUM(D14:D24)</f>
-        <v>84405.204000000012</v>
+        <v>85763.156000000003</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" si="2"/>
-        <v>245912.00400000002</v>
+        <v>249868.35600000003</v>
       </c>
       <c r="G25" s="28"/>
     </row>
@@ -1489,19 +1489,19 @@
       </c>
       <c r="B28" s="18">
         <f>B11*27%</f>
-        <v>2010</v>
+        <v>1809.0000000000002</v>
       </c>
       <c r="C28" s="18">
         <f>C11*27%</f>
-        <v>2070.3000000000002</v>
+        <v>3782.4381000000003</v>
       </c>
       <c r="D28" s="18">
         <f>D11*27%</f>
-        <v>4109.1521430000012</v>
+        <v>1919.1681000000001</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ref="E28:E37" si="6">SUM(B28:D28)</f>
-        <v>8189.4521430000013</v>
+        <v>7510.6062000000002</v>
       </c>
       <c r="F28" s="25"/>
     </row>
@@ -1511,19 +1511,19 @@
       </c>
       <c r="B29" s="18">
         <f>SUM(B14+B15)*28%</f>
-        <v>9744.0000000000018</v>
+        <v>9408</v>
       </c>
       <c r="C29" s="18">
         <f>SUM(C14+C15)*28%</f>
-        <v>10036.320000000002</v>
+        <v>9690.2400000000016</v>
       </c>
       <c r="D29" s="18">
         <f>SUM(D14+D15)*28%</f>
-        <v>10337.409600000001</v>
+        <v>9980.9472000000005</v>
       </c>
       <c r="E29" s="18">
         <f t="shared" si="6"/>
-        <v>30117.729600000006</v>
+        <v>29079.1872</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="26"/>
@@ -1646,19 +1646,19 @@
       </c>
       <c r="B35" s="18">
         <f>(B21+B23)*1%</f>
-        <v>292.8</v>
+        <v>252.8</v>
       </c>
       <c r="C35" s="18">
         <f>(C21+C23)*1%</f>
-        <v>301.584</v>
+        <v>260.38400000000001</v>
       </c>
       <c r="D35" s="18">
         <f>(D21+D23)*1%</f>
-        <v>310.63152000000002</v>
+        <v>268.19552000000004</v>
       </c>
       <c r="E35" s="18">
         <f t="shared" si="6"/>
-        <v>905.01552000000004</v>
+        <v>781.37951999999996</v>
       </c>
       <c r="F35" s="26"/>
     </row>
@@ -1668,19 +1668,19 @@
       </c>
       <c r="B36" s="18">
         <f>(B22+B24)*2%</f>
-        <v>309.60000000000002</v>
+        <v>439.2</v>
       </c>
       <c r="C36" s="18">
         <f>(C22+C24)*2%</f>
-        <v>318.88799999999998</v>
+        <v>452.37599999999998</v>
       </c>
       <c r="D36" s="18">
         <f>(D22+D24)*2%</f>
-        <v>328.45463999999998</v>
+        <v>465.94728000000003</v>
       </c>
       <c r="E36" s="18">
         <f t="shared" si="6"/>
-        <v>956.94263999999998</v>
+        <v>1357.5232800000001</v>
       </c>
       <c r="F36" s="26"/>
     </row>
@@ -1690,19 +1690,19 @@
       </c>
       <c r="B37" s="19">
         <f>SUM(B28:B36)</f>
-        <v>12356.400000000001</v>
+        <v>11909</v>
       </c>
       <c r="C37" s="19">
         <f>SUM(C28:C36)</f>
-        <v>12727.092000000004</v>
+        <v>14185.438100000001</v>
       </c>
       <c r="D37" s="19">
         <f>SUM(D28:D36)</f>
-        <v>15085.647903000003</v>
+        <v>12634.258100000001</v>
       </c>
       <c r="E37" s="18">
         <f t="shared" si="6"/>
-        <v>40169.13990300001</v>
+        <v>38728.696199999998</v>
       </c>
       <c r="F37" s="29"/>
       <c r="H37" s="29"/>
@@ -1720,19 +1720,19 @@
       </c>
       <c r="B39" s="19">
         <f>SUM(B11,B25,B37)</f>
-        <v>99360.844444444432</v>
+        <v>99449</v>
       </c>
       <c r="C39" s="19">
         <f>SUM(C11,C25,C37)</f>
-        <v>102341.66977777779</v>
+        <v>111459.6681</v>
       </c>
       <c r="D39" s="19">
         <f>SUM(D11,D25,D37)</f>
-        <v>114709.93391411113</v>
+        <v>105505.44410000001</v>
       </c>
       <c r="E39" s="18">
         <f>SUM(B39:D39)</f>
-        <v>316412.44813633332</v>
+        <v>316414.11220000003</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="28"/>
@@ -2220,19 +2220,19 @@
       </c>
       <c r="B71" s="18">
         <f>B11+B25+B37+B44+B55-B51</f>
-        <v>103160.84444444443</v>
+        <v>103249</v>
       </c>
       <c r="C71" s="18">
         <f>C11+C25+C37+C44+C55-C51</f>
-        <v>108141.66977777779</v>
+        <v>117259.6681</v>
       </c>
       <c r="D71" s="18">
         <f>D11+D25+D37+D44+D55-D51</f>
-        <v>120509.93391411113</v>
+        <v>111305.44410000001</v>
       </c>
       <c r="E71" s="18">
         <f>SUM(B71:D71)</f>
-        <v>331812.44813633332</v>
+        <v>331814.11220000003</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
@@ -2251,19 +2251,19 @@
       </c>
       <c r="B73" s="18">
         <f>B11+B25+B37+B44+B55+B69</f>
-        <v>138582.84444444443</v>
+        <v>138671</v>
       </c>
       <c r="C73" s="18">
         <f>C11+C25+C37+C44+C55+C69</f>
-        <v>131935.24977777779</v>
+        <v>141053.2481</v>
       </c>
       <c r="D73" s="18">
         <f>D11+D25+D37+D44+D55+D69</f>
-        <v>144905.31331411112</v>
+        <v>135700.8235</v>
       </c>
       <c r="E73" s="18">
         <f>SUM(B73:D73)</f>
-        <v>415423.40753633331</v>
+        <v>415425.07159999997</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
@@ -2281,19 +2281,19 @@
       </c>
       <c r="B75" s="18">
         <f>B71*0.555</f>
-        <v>57254.268666666663</v>
+        <v>57303.195000000007</v>
       </c>
       <c r="C75" s="18">
         <f>C71*55.5%</f>
-        <v>60018.626726666676</v>
+        <v>65079.115795500002</v>
       </c>
       <c r="D75" s="18">
         <f>D71*55.5%</f>
-        <v>66883.013322331681</v>
+        <v>61774.521475500012</v>
       </c>
       <c r="E75" s="18">
         <f>SUM(B75:D75)</f>
-        <v>184155.90871566502</v>
+        <v>184156.83227100002</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -2312,19 +2312,19 @@
       </c>
       <c r="B77" s="18">
         <f>B73+B75</f>
-        <v>195837.1131111111</v>
+        <v>195974.19500000001</v>
       </c>
       <c r="C77" s="18">
         <f>C73+C75</f>
-        <v>191953.87650444446</v>
+        <v>206132.36389549999</v>
       </c>
       <c r="D77" s="18">
         <f>D73+D75</f>
-        <v>211788.3266364428</v>
+        <v>197475.34497550002</v>
       </c>
       <c r="E77" s="18">
         <f>SUM(B77:D77)</f>
-        <v>599579.3162519983</v>
+        <v>599581.90387100005</v>
       </c>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>

--- a/CSSI_2019/forms/CSSI_2019_Budget_AmyRoberts.xlsx
+++ b/CSSI_2019/forms/CSSI_2019_Budget_AmyRoberts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canto\Repositories\SI2.git\CSSI_2019\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6BC409-0F05-4734-8EB8-9822AA2BFE24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A7E8A5-8EC7-4C47-AA07-AC7EFDDC8C89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="21">
-        <f>$K8*1.03*1.03*10%*1</f>
-        <v>7108.0300000000007</v>
+        <f>$K8*1.03*1.03*10%*0</f>
+        <v>0</v>
       </c>
       <c r="D8" s="21">
-        <f>$K8*1.03*1.03*1.03*10%*0</f>
-        <v>0</v>
+        <f>$K8*1.03*1.03*1.03*10%*1</f>
+        <v>7321.2709000000004</v>
       </c>
       <c r="E8" s="18">
         <f t="shared" ref="E8:E11" si="0">SUM(B8:D8)</f>
-        <v>7108.0300000000007</v>
+        <v>7321.2709000000004</v>
       </c>
       <c r="F8" s="26"/>
       <c r="K8" s="17">
@@ -1076,20 +1076,20 @@
         <v>84</v>
       </c>
       <c r="B10" s="21">
-        <f>K9*(1/10)</f>
-        <v>6700</v>
+        <f>K9*(0.5/9)</f>
+        <v>3722.2222222222222</v>
       </c>
       <c r="C10" s="21">
         <f t="shared" si="1"/>
-        <v>6901</v>
+        <v>3833.8888888888891</v>
       </c>
       <c r="D10" s="21">
         <f t="shared" si="1"/>
-        <v>7108.03</v>
+        <v>3948.905555555556</v>
       </c>
       <c r="E10" s="18">
         <f t="shared" si="0"/>
-        <v>20709.03</v>
+        <v>11505.016666666666</v>
       </c>
       <c r="F10" s="26"/>
     </row>
@@ -1099,19 +1099,19 @@
       </c>
       <c r="B11" s="19">
         <f>SUM(B8:B10)</f>
-        <v>6700</v>
+        <v>3722.2222222222222</v>
       </c>
       <c r="C11" s="19">
         <f>SUM(C8:C10)</f>
-        <v>14009.03</v>
+        <v>3833.8888888888891</v>
       </c>
       <c r="D11" s="19">
         <f>SUM(D8:D10)</f>
-        <v>7108.03</v>
+        <v>11270.176455555556</v>
       </c>
       <c r="E11" s="18">
         <f t="shared" si="0"/>
-        <v>27817.059999999998</v>
+        <v>18826.287566666666</v>
       </c>
       <c r="F11" s="26"/>
     </row>
@@ -1489,19 +1489,19 @@
       </c>
       <c r="B28" s="18">
         <f>B11*27%</f>
-        <v>1809.0000000000002</v>
+        <v>1005</v>
       </c>
       <c r="C28" s="18">
         <f>C11*27%</f>
-        <v>3782.4381000000003</v>
+        <v>1035.1500000000001</v>
       </c>
       <c r="D28" s="18">
         <f>D11*27%</f>
-        <v>1919.1681000000001</v>
+        <v>3042.9476430000004</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ref="E28:E37" si="6">SUM(B28:D28)</f>
-        <v>7510.6062000000002</v>
+        <v>5083.097643000001</v>
       </c>
       <c r="F28" s="25"/>
     </row>
@@ -1690,19 +1690,19 @@
       </c>
       <c r="B37" s="19">
         <f>SUM(B28:B36)</f>
-        <v>11909</v>
+        <v>11105</v>
       </c>
       <c r="C37" s="19">
         <f>SUM(C28:C36)</f>
-        <v>14185.438100000001</v>
+        <v>11438.150000000001</v>
       </c>
       <c r="D37" s="19">
         <f>SUM(D28:D36)</f>
-        <v>12634.258100000001</v>
+        <v>13758.037643000001</v>
       </c>
       <c r="E37" s="18">
         <f t="shared" si="6"/>
-        <v>38728.696199999998</v>
+        <v>36301.187643000005</v>
       </c>
       <c r="F37" s="29"/>
       <c r="H37" s="29"/>
@@ -1720,19 +1720,19 @@
       </c>
       <c r="B39" s="19">
         <f>SUM(B11,B25,B37)</f>
-        <v>99449</v>
+        <v>95667.222222222219</v>
       </c>
       <c r="C39" s="19">
         <f>SUM(C11,C25,C37)</f>
-        <v>111459.6681</v>
+        <v>98537.238888888882</v>
       </c>
       <c r="D39" s="19">
         <f>SUM(D11,D25,D37)</f>
-        <v>105505.44410000001</v>
+        <v>110791.37009855556</v>
       </c>
       <c r="E39" s="18">
         <f>SUM(B39:D39)</f>
-        <v>316414.11220000003</v>
+        <v>304995.83120966668</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="28"/>
@@ -2220,19 +2220,19 @@
       </c>
       <c r="B71" s="18">
         <f>B11+B25+B37+B44+B55-B51</f>
-        <v>103249</v>
+        <v>99467.222222222219</v>
       </c>
       <c r="C71" s="18">
         <f>C11+C25+C37+C44+C55-C51</f>
-        <v>117259.6681</v>
+        <v>104337.23888888888</v>
       </c>
       <c r="D71" s="18">
         <f>D11+D25+D37+D44+D55-D51</f>
-        <v>111305.44410000001</v>
+        <v>116591.37009855556</v>
       </c>
       <c r="E71" s="18">
         <f>SUM(B71:D71)</f>
-        <v>331814.11220000003</v>
+        <v>320395.83120966668</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
@@ -2251,19 +2251,19 @@
       </c>
       <c r="B73" s="18">
         <f>B11+B25+B37+B44+B55+B69</f>
-        <v>138671</v>
+        <v>134889.22222222222</v>
       </c>
       <c r="C73" s="18">
         <f>C11+C25+C37+C44+C55+C69</f>
-        <v>141053.2481</v>
+        <v>128130.81888888888</v>
       </c>
       <c r="D73" s="18">
         <f>D11+D25+D37+D44+D55+D69</f>
-        <v>135700.8235</v>
+        <v>140986.74949855555</v>
       </c>
       <c r="E73" s="18">
         <f>SUM(B73:D73)</f>
-        <v>415425.07159999997</v>
+        <v>404006.79060966667</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
@@ -2281,19 +2281,19 @@
       </c>
       <c r="B75" s="18">
         <f>B71*0.555</f>
-        <v>57303.195000000007</v>
+        <v>55204.308333333334</v>
       </c>
       <c r="C75" s="18">
         <f>C71*55.5%</f>
-        <v>65079.115795500002</v>
+        <v>57907.167583333336</v>
       </c>
       <c r="D75" s="18">
         <f>D71*55.5%</f>
-        <v>61774.521475500012</v>
+        <v>64708.210404698344</v>
       </c>
       <c r="E75" s="18">
         <f>SUM(B75:D75)</f>
-        <v>184156.83227100002</v>
+        <v>177819.68632136501</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -2312,19 +2312,19 @@
       </c>
       <c r="B77" s="18">
         <f>B73+B75</f>
-        <v>195974.19500000001</v>
+        <v>190093.53055555554</v>
       </c>
       <c r="C77" s="18">
         <f>C73+C75</f>
-        <v>206132.36389549999</v>
+        <v>186037.98647222223</v>
       </c>
       <c r="D77" s="18">
         <f>D73+D75</f>
-        <v>197475.34497550002</v>
+        <v>205694.95990325388</v>
       </c>
       <c r="E77" s="18">
         <f>SUM(B77:D77)</f>
-        <v>599581.90387100005</v>
+        <v>581826.47693103156</v>
       </c>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>

--- a/CSSI_2019/forms/CSSI_2019_Budget_AmyRoberts.xlsx
+++ b/CSSI_2019/forms/CSSI_2019_Budget_AmyRoberts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canto\Repositories\SI2.git\CSSI_2019\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A7E8A5-8EC7-4C47-AA07-AC7EFDDC8C89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C27AA2B-F4C7-439B-B484-5532F57A0F08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -935,7 +935,7 @@
   <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1168,24 +1168,24 @@
       </c>
       <c r="B15" s="9">
         <f>K15*0.8</f>
-        <v>33600</v>
+        <v>34400</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" ref="C15:D16" si="3">(B15*3%)+B15</f>
-        <v>34608</v>
+        <v>35432</v>
       </c>
       <c r="D15" s="9">
         <f t="shared" si="3"/>
-        <v>35646.239999999998</v>
+        <v>36494.959999999999</v>
       </c>
       <c r="E15" s="18">
         <f t="shared" si="2"/>
-        <v>103854.23999999999</v>
+        <v>106326.95999999999</v>
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="26"/>
       <c r="K15" s="17">
-        <v>42000</v>
+        <v>43000</v>
       </c>
       <c r="L15" t="s">
         <v>81</v>
@@ -1236,14 +1236,15 @@
         <v>85</v>
       </c>
       <c r="B18" s="9">
+        <f>K18*0</f>
         <v>0</v>
       </c>
       <c r="C18" s="9">
-        <f>K18*0</f>
+        <f>B18*1.03</f>
         <v>0</v>
       </c>
       <c r="D18" s="9">
-        <f>47844*0</f>
+        <f>C18*1.03</f>
         <v>0</v>
       </c>
       <c r="E18" s="18">
@@ -1253,7 +1254,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="K18" s="17">
-        <v>47484</v>
+        <v>474484</v>
       </c>
       <c r="L18" t="s">
         <v>76</v>
@@ -1451,19 +1452,19 @@
       </c>
       <c r="B25" s="19">
         <f>SUM(B14:B24)</f>
-        <v>80840</v>
+        <v>81640</v>
       </c>
       <c r="C25" s="19">
         <f>SUM(C14:C24)</f>
-        <v>83265.2</v>
+        <v>84089.2</v>
       </c>
       <c r="D25" s="19">
         <f>SUM(D14:D24)</f>
-        <v>85763.156000000003</v>
+        <v>86611.876000000004</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" si="2"/>
-        <v>249868.35600000003</v>
+        <v>252341.076</v>
       </c>
       <c r="G25" s="28"/>
     </row>
@@ -1511,19 +1512,19 @@
       </c>
       <c r="B29" s="18">
         <f>SUM(B14+B15)*28%</f>
-        <v>9408</v>
+        <v>9632.0000000000018</v>
       </c>
       <c r="C29" s="18">
         <f>SUM(C14+C15)*28%</f>
-        <v>9690.2400000000016</v>
+        <v>9920.9600000000009</v>
       </c>
       <c r="D29" s="18">
         <f>SUM(D14+D15)*28%</f>
-        <v>9980.9472000000005</v>
+        <v>10218.588800000001</v>
       </c>
       <c r="E29" s="18">
         <f t="shared" si="6"/>
-        <v>29079.1872</v>
+        <v>29771.548800000004</v>
       </c>
       <c r="H29" s="32"/>
       <c r="I29" s="26"/>
@@ -1690,19 +1691,19 @@
       </c>
       <c r="B37" s="19">
         <f>SUM(B28:B36)</f>
-        <v>11105</v>
+        <v>11329.000000000002</v>
       </c>
       <c r="C37" s="19">
         <f>SUM(C28:C36)</f>
-        <v>11438.150000000001</v>
+        <v>11668.87</v>
       </c>
       <c r="D37" s="19">
         <f>SUM(D28:D36)</f>
-        <v>13758.037643000001</v>
+        <v>13995.679243</v>
       </c>
       <c r="E37" s="18">
         <f t="shared" si="6"/>
-        <v>36301.187643000005</v>
+        <v>36993.549243000001</v>
       </c>
       <c r="F37" s="29"/>
       <c r="H37" s="29"/>
@@ -1720,19 +1721,19 @@
       </c>
       <c r="B39" s="19">
         <f>SUM(B11,B25,B37)</f>
-        <v>95667.222222222219</v>
+        <v>96691.222222222219</v>
       </c>
       <c r="C39" s="19">
         <f>SUM(C11,C25,C37)</f>
-        <v>98537.238888888882</v>
+        <v>99591.958888888883</v>
       </c>
       <c r="D39" s="19">
         <f>SUM(D11,D25,D37)</f>
-        <v>110791.37009855556</v>
+        <v>111877.73169855557</v>
       </c>
       <c r="E39" s="18">
         <f>SUM(B39:D39)</f>
-        <v>304995.83120966668</v>
+        <v>308160.91280966665</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="28"/>
@@ -1759,17 +1760,17 @@
         <v>23</v>
       </c>
       <c r="B42" s="24">
-        <v>1200</v>
+        <v>3220</v>
       </c>
       <c r="C42" s="24">
-        <v>1200</v>
+        <v>3220</v>
       </c>
       <c r="D42" s="24">
-        <v>1200</v>
+        <v>3220</v>
       </c>
       <c r="E42" s="18">
         <f>SUM(B42:D42)</f>
-        <v>3600</v>
+        <v>9660</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -1792,19 +1793,19 @@
       </c>
       <c r="B44" s="19">
         <f>SUM(B42:B43)</f>
-        <v>1200</v>
+        <v>3220</v>
       </c>
       <c r="C44" s="19">
         <f>SUM(C42:C43)</f>
-        <v>1200</v>
+        <v>3220</v>
       </c>
       <c r="D44" s="19">
         <f>SUM(D42:D43)</f>
-        <v>1200</v>
+        <v>3220</v>
       </c>
       <c r="E44" s="18">
         <f>SUM(B44:D44)</f>
-        <v>3600</v>
+        <v>9660</v>
       </c>
       <c r="F44" s="30"/>
       <c r="G44" s="30"/>
@@ -2042,18 +2043,12 @@
       <c r="A62" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="9">
-        <v>10000</v>
-      </c>
-      <c r="C62" s="9">
-        <v>10000</v>
-      </c>
-      <c r="D62" s="9">
-        <v>10000</v>
-      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
       <c r="E62" s="18">
         <f>SUM(B62:D62)</f>
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
@@ -2072,24 +2067,36 @@
       <c r="A64" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="9">
+        <v>2000</v>
+      </c>
+      <c r="C64" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D64" s="9">
+        <v>2000</v>
+      </c>
       <c r="E64" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="13.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="B65" s="9">
+        <v>8000</v>
+      </c>
+      <c r="C65" s="9">
+        <v>8000</v>
+      </c>
+      <c r="D65" s="9">
+        <v>8000</v>
+      </c>
       <c r="E65" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="K65" t="s">
         <v>92</v>
@@ -2220,19 +2227,19 @@
       </c>
       <c r="B71" s="18">
         <f>B11+B25+B37+B44+B55-B51</f>
-        <v>99467.222222222219</v>
+        <v>102511.22222222222</v>
       </c>
       <c r="C71" s="18">
         <f>C11+C25+C37+C44+C55-C51</f>
-        <v>104337.23888888888</v>
+        <v>107411.95888888888</v>
       </c>
       <c r="D71" s="18">
         <f>D11+D25+D37+D44+D55-D51</f>
-        <v>116591.37009855556</v>
+        <v>119697.73169855557</v>
       </c>
       <c r="E71" s="18">
         <f>SUM(B71:D71)</f>
-        <v>320395.83120966668</v>
+        <v>329620.91280966665</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
@@ -2251,19 +2258,19 @@
       </c>
       <c r="B73" s="18">
         <f>B11+B25+B37+B44+B55+B69</f>
-        <v>134889.22222222222</v>
+        <v>137933.22222222222</v>
       </c>
       <c r="C73" s="18">
         <f>C11+C25+C37+C44+C55+C69</f>
-        <v>128130.81888888888</v>
+        <v>131205.53888888887</v>
       </c>
       <c r="D73" s="18">
         <f>D11+D25+D37+D44+D55+D69</f>
-        <v>140986.74949855555</v>
+        <v>144093.11109855556</v>
       </c>
       <c r="E73" s="18">
         <f>SUM(B73:D73)</f>
-        <v>404006.79060966667</v>
+        <v>413231.87220966665</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
@@ -2281,19 +2288,19 @@
       </c>
       <c r="B75" s="18">
         <f>B71*0.555</f>
-        <v>55204.308333333334</v>
+        <v>56893.72833333334</v>
       </c>
       <c r="C75" s="18">
         <f>C71*55.5%</f>
-        <v>57907.167583333336</v>
+        <v>59613.637183333332</v>
       </c>
       <c r="D75" s="18">
         <f>D71*55.5%</f>
-        <v>64708.210404698344</v>
+        <v>66432.241092698343</v>
       </c>
       <c r="E75" s="18">
         <f>SUM(B75:D75)</f>
-        <v>177819.68632136501</v>
+        <v>182939.60660936503</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -2312,19 +2319,19 @@
       </c>
       <c r="B77" s="18">
         <f>B73+B75</f>
-        <v>190093.53055555554</v>
+        <v>194826.95055555555</v>
       </c>
       <c r="C77" s="18">
         <f>C73+C75</f>
-        <v>186037.98647222223</v>
+        <v>190819.17607222221</v>
       </c>
       <c r="D77" s="18">
         <f>D73+D75</f>
-        <v>205694.95990325388</v>
+        <v>210525.35219125391</v>
       </c>
       <c r="E77" s="18">
         <f>SUM(B77:D77)</f>
-        <v>581826.47693103156</v>
+        <v>596171.47881903173</v>
       </c>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>

--- a/CSSI_2019/forms/CSSI_2019_Budget_AmyRoberts.xlsx
+++ b/CSSI_2019/forms/CSSI_2019_Budget_AmyRoberts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\canto\Repositories\SI2.git\CSSI_2019\forms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C27AA2B-F4C7-439B-B484-5532F57A0F08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81F3A4B-C5D8-4FEF-82E5-231839E7238F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2055,12 +2055,18 @@
       <c r="A63" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="B63" s="9">
+        <v>7000</v>
+      </c>
+      <c r="C63" s="9">
+        <v>7000</v>
+      </c>
+      <c r="D63" s="9">
+        <v>7000</v>
+      </c>
       <c r="E63" s="18">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="13.5" x14ac:dyDescent="0.35">
@@ -2086,17 +2092,17 @@
         <v>10</v>
       </c>
       <c r="B65" s="9">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="C65" s="9">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="D65" s="9">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="E65" s="18">
         <f t="shared" si="8"/>
-        <v>24000</v>
+        <v>3000</v>
       </c>
       <c r="K65" t="s">
         <v>92</v>
